--- a/LR3/table_1_34.xlsx
+++ b/LR3/table_1_34.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -159,23 +159,23 @@
     <t xml:space="preserve">Афанасьев </t>
   </si>
   <si>
-    <t>88641 рубль</t>
-  </si>
-  <si>
-    <t>61,25 кв.м.</t>
-  </si>
-  <si>
-    <t>27 дней</t>
-  </si>
-  <si>
-    <t>3347,4 рубля</t>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Максимальный срок пророчки, дней</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +231,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -309,6 +314,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -343,6 +349,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -518,17 +525,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" style="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
@@ -538,12 +545,12 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -610,7 +617,7 @@
       <c r="AP2" s="3"/>
       <c r="AQ2" s="3"/>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -621,12 +628,12 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>21*1.1</f>
-        <v>23.1</v>
+        <f>34*1.1</f>
+        <v>37.400000000000006</v>
       </c>
       <c r="E3" s="1">
         <f>D3*C3</f>
-        <v>1617</v>
+        <v>2618.0000000000005</v>
       </c>
       <c r="F3" s="5">
         <v>44813</v>
@@ -646,10 +653,10 @@
       </c>
       <c r="K3" s="1">
         <f>E3+J3</f>
-        <v>1617</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43">
+        <v>2618.0000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -660,12 +667,12 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f>22*1.1</f>
-        <v>24.200000000000003</v>
+        <f t="shared" ref="D4:D38" si="0">34*1.1</f>
+        <v>37.400000000000006</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="0">D4*C4</f>
-        <v>1681.9</v>
+        <f t="shared" ref="E4:E38" si="1">D4*C4</f>
+        <v>2599.3000000000002</v>
       </c>
       <c r="F4" s="5">
         <v>44813</v>
@@ -680,15 +687,15 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="1">H4*I4</f>
+        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="2">E4+J4</f>
-        <v>1681.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43">
+        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
+        <v>2599.3000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -699,12 +706,12 @@
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f>23*1.1</f>
-        <v>25.3</v>
+        <f t="shared" si="0"/>
+        <v>37.400000000000006</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
-        <v>1745.7</v>
+        <f t="shared" si="1"/>
+        <v>2580.6000000000004</v>
       </c>
       <c r="F5" s="5">
         <v>44813</v>
@@ -719,15 +726,15 @@
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="2"/>
-        <v>1745.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43">
+        <f t="shared" si="3"/>
+        <v>2580.6000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -738,12 +745,12 @@
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f>24*1.1</f>
-        <v>26.400000000000002</v>
+        <f t="shared" si="0"/>
+        <v>37.400000000000006</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>1808.4</v>
+        <f t="shared" si="1"/>
+        <v>2561.9000000000005</v>
       </c>
       <c r="F6" s="5">
         <v>44813</v>
@@ -758,15 +765,15 @@
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="2"/>
-        <v>1808.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43">
+        <f t="shared" si="3"/>
+        <v>2561.9000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -777,12 +784,12 @@
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f>1.1*25</f>
-        <v>27.500000000000004</v>
+        <f t="shared" si="0"/>
+        <v>37.400000000000006</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>1870.0000000000002</v>
+        <f t="shared" si="1"/>
+        <v>2543.2000000000003</v>
       </c>
       <c r="F7" s="5">
         <v>44813</v>
@@ -797,15 +804,15 @@
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="2"/>
-        <v>1870.0000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43">
+        <f t="shared" si="3"/>
+        <v>2543.2000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -816,12 +823,12 @@
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f>1.1*26</f>
-        <v>28.6</v>
+        <f t="shared" si="0"/>
+        <v>37.400000000000006</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>1930.5</v>
+        <f t="shared" si="1"/>
+        <v>2524.5000000000005</v>
       </c>
       <c r="F8" s="5">
         <v>44813</v>
@@ -836,15 +843,15 @@
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="2"/>
-        <v>1930.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43">
+        <f t="shared" si="3"/>
+        <v>2524.5000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -855,12 +862,12 @@
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f>1.1*27</f>
-        <v>29.700000000000003</v>
+        <f t="shared" si="0"/>
+        <v>37.400000000000006</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>1989.9</v>
+        <f t="shared" si="1"/>
+        <v>2505.8000000000002</v>
       </c>
       <c r="F9" s="5">
         <v>44813</v>
@@ -875,15 +882,15 @@
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="2"/>
-        <v>1989.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43">
+        <f t="shared" si="3"/>
+        <v>2505.8000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -894,12 +901,12 @@
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f>1.1*28</f>
-        <v>30.800000000000004</v>
+        <f t="shared" si="0"/>
+        <v>37.400000000000006</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>2048.2000000000003</v>
+        <f t="shared" si="1"/>
+        <v>2487.1000000000004</v>
       </c>
       <c r="F10" s="5">
         <v>44813</v>
@@ -914,15 +921,15 @@
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="2"/>
-        <v>2048.2000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43">
+        <f t="shared" si="3"/>
+        <v>2487.1000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -933,12 +940,12 @@
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f>1.1*29</f>
-        <v>31.900000000000002</v>
+        <f t="shared" si="0"/>
+        <v>37.400000000000006</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>2105.4</v>
+        <f t="shared" si="1"/>
+        <v>2468.4000000000005</v>
       </c>
       <c r="F11" s="5">
         <v>44813</v>
@@ -953,15 +960,15 @@
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="2"/>
-        <v>2105.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43">
+        <f t="shared" si="3"/>
+        <v>2468.4000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -972,12 +979,12 @@
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f>1.1*30</f>
-        <v>33</v>
+        <f t="shared" si="0"/>
+        <v>37.400000000000006</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>2161.5</v>
+        <f t="shared" si="1"/>
+        <v>2449.7000000000003</v>
       </c>
       <c r="F12" s="5">
         <v>44813</v>
@@ -992,15 +999,15 @@
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="2"/>
-        <v>2171.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43">
+        <f t="shared" si="3"/>
+        <v>2459.7000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1011,12 +1018,12 @@
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f>1.1*31</f>
-        <v>34.1</v>
+        <f t="shared" si="0"/>
+        <v>37.400000000000006</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="0"/>
-        <v>2216.5</v>
+        <f t="shared" si="1"/>
+        <v>2431.0000000000005</v>
       </c>
       <c r="F13" s="5">
         <v>44813</v>
@@ -1031,15 +1038,15 @@
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="2"/>
-        <v>2236.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43">
+        <f t="shared" si="3"/>
+        <v>2451.0000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1050,12 +1057,12 @@
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f>1.1*32</f>
-        <v>35.200000000000003</v>
+        <f t="shared" si="0"/>
+        <v>37.400000000000006</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>2270.4</v>
+        <f t="shared" si="1"/>
+        <v>2412.3000000000002</v>
       </c>
       <c r="F14" s="5">
         <v>44813</v>
@@ -1070,15 +1077,15 @@
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="2"/>
-        <v>2300.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43">
+        <f t="shared" si="3"/>
+        <v>2442.3000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1089,12 +1096,12 @@
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f>1.1*33</f>
-        <v>36.300000000000004</v>
+        <f t="shared" si="0"/>
+        <v>37.400000000000006</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
-        <v>2323.2000000000003</v>
+        <f t="shared" si="1"/>
+        <v>2393.6000000000004</v>
       </c>
       <c r="F15" s="5">
         <v>44813</v>
@@ -1109,15 +1116,15 @@
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="2"/>
-        <v>2363.2000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43">
+        <f t="shared" si="3"/>
+        <v>2433.6000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1128,11 +1135,11 @@
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f>1.1*34</f>
+        <f t="shared" si="0"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2374.9000000000005</v>
       </c>
       <c r="F16" s="5">
@@ -1148,15 +1155,15 @@
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2424.9000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1167,12 +1174,12 @@
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f>1.1*35</f>
-        <v>38.5</v>
+        <f t="shared" si="0"/>
+        <v>37.400000000000006</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="0"/>
-        <v>2425.5</v>
+        <f t="shared" si="1"/>
+        <v>2356.2000000000003</v>
       </c>
       <c r="F17" s="5">
         <v>44813</v>
@@ -1187,15 +1194,15 @@
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="2"/>
-        <v>2485.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <f t="shared" si="3"/>
+        <v>2416.2000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1206,12 +1213,12 @@
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f>1.1*36</f>
-        <v>39.6</v>
+        <f t="shared" si="0"/>
+        <v>37.400000000000006</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="0"/>
-        <v>2475</v>
+        <f t="shared" si="1"/>
+        <v>2337.5000000000005</v>
       </c>
       <c r="F18" s="5">
         <v>44813</v>
@@ -1226,15 +1233,15 @@
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="2"/>
-        <v>2545</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <f t="shared" si="3"/>
+        <v>2407.5000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1245,12 +1252,12 @@
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f>1.1*37</f>
-        <v>40.700000000000003</v>
+        <f t="shared" si="0"/>
+        <v>37.400000000000006</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="0"/>
-        <v>2523.4</v>
+        <f t="shared" si="1"/>
+        <v>2318.8000000000002</v>
       </c>
       <c r="F19" s="5">
         <v>44813</v>
@@ -1265,15 +1272,15 @@
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="2"/>
-        <v>2603.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <f t="shared" si="3"/>
+        <v>2398.8000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1284,12 +1291,12 @@
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f>1.1*38</f>
-        <v>41.800000000000004</v>
+        <f t="shared" si="0"/>
+        <v>37.400000000000006</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="0"/>
-        <v>2570.7000000000003</v>
+        <f t="shared" si="1"/>
+        <v>2300.1000000000004</v>
       </c>
       <c r="F20" s="5">
         <v>44813</v>
@@ -1304,15 +1311,15 @@
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="2"/>
-        <v>2660.7000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <f t="shared" si="3"/>
+        <v>2390.1000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1323,12 +1330,12 @@
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f>1.1*39</f>
-        <v>42.900000000000006</v>
+        <f t="shared" si="0"/>
+        <v>37.400000000000006</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="0"/>
-        <v>2616.9000000000005</v>
+        <f t="shared" si="1"/>
+        <v>2281.4000000000005</v>
       </c>
       <c r="F21" s="5">
         <v>44813</v>
@@ -1343,15 +1350,15 @@
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="2"/>
-        <v>2716.9000000000005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <f t="shared" si="3"/>
+        <v>2381.4000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1362,12 +1369,12 @@
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f>1.1*40</f>
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>37.400000000000006</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="0"/>
-        <v>2662</v>
+        <f t="shared" si="1"/>
+        <v>2262.7000000000003</v>
       </c>
       <c r="F22" s="5">
         <v>44813</v>
@@ -1382,15 +1389,15 @@
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="2"/>
-        <v>2772</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <f t="shared" si="3"/>
+        <v>2372.7000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1401,12 +1408,12 @@
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f>1.1*41</f>
-        <v>45.1</v>
+        <f t="shared" si="0"/>
+        <v>37.400000000000006</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="0"/>
-        <v>2706</v>
+        <f t="shared" si="1"/>
+        <v>2244.0000000000005</v>
       </c>
       <c r="F23" s="5">
         <v>44813</v>
@@ -1421,15 +1428,15 @@
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="2"/>
-        <v>2826</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <f t="shared" si="3"/>
+        <v>2364.0000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1440,12 +1447,12 @@
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f>1.1*42</f>
-        <v>46.2</v>
+        <f t="shared" si="0"/>
+        <v>37.400000000000006</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="0"/>
-        <v>2748.9</v>
+        <f t="shared" si="1"/>
+        <v>2225.3000000000002</v>
       </c>
       <c r="F24" s="5">
         <v>44813</v>
@@ -1460,15 +1467,15 @@
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="2"/>
-        <v>2878.9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <f t="shared" si="3"/>
+        <v>2355.3000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -1479,12 +1486,12 @@
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f>1.1*43</f>
-        <v>47.300000000000004</v>
+        <f t="shared" si="0"/>
+        <v>37.400000000000006</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="0"/>
-        <v>2790.7000000000003</v>
+        <f t="shared" si="1"/>
+        <v>2206.6000000000004</v>
       </c>
       <c r="F25" s="5">
         <v>44813</v>
@@ -1499,15 +1506,15 @@
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="2"/>
-        <v>2930.7000000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <f t="shared" si="3"/>
+        <v>2346.6000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -1518,12 +1525,12 @@
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f>1.1*44</f>
-        <v>48.400000000000006</v>
+        <f t="shared" si="0"/>
+        <v>37.400000000000006</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="0"/>
-        <v>2831.4000000000005</v>
+        <f t="shared" si="1"/>
+        <v>2187.9000000000005</v>
       </c>
       <c r="F26" s="5">
         <v>44813</v>
@@ -1538,15 +1545,15 @@
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="2"/>
-        <v>2981.4000000000005</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <f t="shared" si="3"/>
+        <v>2337.9000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -1557,12 +1564,12 @@
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f>1.1*45</f>
-        <v>49.500000000000007</v>
+        <f t="shared" si="0"/>
+        <v>37.400000000000006</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="0"/>
-        <v>2871.0000000000005</v>
+        <f t="shared" si="1"/>
+        <v>2169.2000000000003</v>
       </c>
       <c r="F27" s="5">
         <v>44813</v>
@@ -1577,15 +1584,15 @@
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="2"/>
-        <v>3031.0000000000005</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <f t="shared" si="3"/>
+        <v>2329.2000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1596,12 +1603,12 @@
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f>1.1*46</f>
-        <v>50.6</v>
+        <f t="shared" si="0"/>
+        <v>37.400000000000006</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="0"/>
-        <v>2909.5</v>
+        <f t="shared" si="1"/>
+        <v>2150.5000000000005</v>
       </c>
       <c r="F28" s="5">
         <v>44813</v>
@@ -1616,15 +1623,15 @@
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="2"/>
-        <v>3079.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <f t="shared" si="3"/>
+        <v>2320.5000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -1635,12 +1642,12 @@
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f>1.1*47</f>
-        <v>51.7</v>
+        <f t="shared" si="0"/>
+        <v>37.400000000000006</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="0"/>
-        <v>2946.9</v>
+        <f t="shared" si="1"/>
+        <v>2131.8000000000002</v>
       </c>
       <c r="F29" s="5">
         <v>44813</v>
@@ -1655,15 +1662,15 @@
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="2"/>
-        <v>3126.9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <f t="shared" si="3"/>
+        <v>2311.8000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -1674,12 +1681,12 @@
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f>1.1*48</f>
-        <v>52.800000000000004</v>
+        <f t="shared" si="0"/>
+        <v>37.400000000000006</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="0"/>
-        <v>2983.2000000000003</v>
+        <f t="shared" si="1"/>
+        <v>2113.1000000000004</v>
       </c>
       <c r="F30" s="5">
         <v>44813</v>
@@ -1694,15 +1701,15 @@
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="2"/>
-        <v>3173.2000000000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <f t="shared" si="3"/>
+        <v>2303.1000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -1713,12 +1720,12 @@
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f>1.1*49</f>
-        <v>53.900000000000006</v>
+        <f t="shared" si="0"/>
+        <v>37.400000000000006</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="0"/>
-        <v>3018.4000000000005</v>
+        <f t="shared" si="1"/>
+        <v>2094.4000000000005</v>
       </c>
       <c r="F31" s="5">
         <v>44813</v>
@@ -1733,15 +1740,15 @@
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="2"/>
-        <v>3218.4000000000005</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <f t="shared" si="3"/>
+        <v>2294.4000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -1752,12 +1759,12 @@
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f>1.1*50</f>
-        <v>55.000000000000007</v>
+        <f t="shared" si="0"/>
+        <v>37.400000000000006</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="0"/>
-        <v>3052.5000000000005</v>
+        <f t="shared" si="1"/>
+        <v>2075.7000000000003</v>
       </c>
       <c r="F32" s="5">
         <v>44813</v>
@@ -1772,15 +1779,15 @@
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="2"/>
-        <v>3262.5000000000005</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <f t="shared" si="3"/>
+        <v>2285.7000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -1791,12 +1798,12 @@
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f>1.1*51</f>
-        <v>56.1</v>
+        <f t="shared" si="0"/>
+        <v>37.400000000000006</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="0"/>
-        <v>3085.5</v>
+        <f t="shared" si="1"/>
+        <v>2057.0000000000005</v>
       </c>
       <c r="F33" s="5">
         <v>44813</v>
@@ -1811,15 +1818,15 @@
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="2"/>
-        <v>3305.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <f t="shared" si="3"/>
+        <v>2277.0000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -1830,12 +1837,12 @@
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f>1.1*52</f>
-        <v>57.2</v>
+        <f t="shared" si="0"/>
+        <v>37.400000000000006</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="0"/>
-        <v>3117.4</v>
+        <f t="shared" si="1"/>
+        <v>2038.3000000000004</v>
       </c>
       <c r="F34" s="5">
         <v>44813</v>
@@ -1850,15 +1857,15 @@
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="2"/>
-        <v>3347.4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <f t="shared" si="3"/>
+        <v>2268.3000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -1869,12 +1876,12 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>1.1*53/2</f>
-        <v>29.150000000000002</v>
+        <f t="shared" ref="D35:D37" si="4">34*1.1/2</f>
+        <v>18.700000000000003</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="0"/>
-        <v>1574.1000000000001</v>
+        <f t="shared" si="1"/>
+        <v>1009.8000000000002</v>
       </c>
       <c r="F35" s="5">
         <v>44813</v>
@@ -1889,15 +1896,15 @@
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="2"/>
-        <v>1814.1000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <f t="shared" si="3"/>
+        <v>1249.8000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -1908,12 +1915,12 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f>1.1*54/2</f>
-        <v>29.700000000000003</v>
+        <f t="shared" si="4"/>
+        <v>18.700000000000003</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="0"/>
-        <v>1588.95</v>
+        <f t="shared" si="1"/>
+        <v>1000.4500000000002</v>
       </c>
       <c r="F36" s="5">
         <v>44813</v>
@@ -1928,15 +1935,15 @@
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="2"/>
-        <v>1838.95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <f t="shared" si="3"/>
+        <v>1250.4500000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -1947,12 +1954,12 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f>1.1*55/2</f>
-        <v>30.250000000000004</v>
+        <f t="shared" si="4"/>
+        <v>18.700000000000003</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="0"/>
-        <v>1603.2500000000002</v>
+        <f t="shared" si="1"/>
+        <v>991.10000000000014</v>
       </c>
       <c r="F37" s="5">
         <v>44813</v>
@@ -1967,15 +1974,15 @@
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="2"/>
-        <v>1863.2500000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <f t="shared" si="3"/>
+        <v>1251.1000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -1986,12 +1993,12 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f>1.1*56/2</f>
-        <v>30.800000000000004</v>
+        <f>34*1.1/2</f>
+        <v>18.700000000000003</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="0"/>
-        <v>1617.0000000000002</v>
+        <f t="shared" si="1"/>
+        <v>981.75000000000011</v>
       </c>
       <c r="F38" s="5">
         <v>44813</v>
@@ -2006,24 +2013,24 @@
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="2"/>
-        <v>1887.0000000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <f t="shared" si="3"/>
+        <v>1251.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="1">
         <f>SUM(K3:K38)</f>
-        <v>88641.7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>82263.900000000009</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>48</v>
       </c>
@@ -2032,7 +2039,7 @@
         <v>61.25</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>49</v>
       </c>
@@ -2041,13 +2048,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>
-        <v>3347.4</v>
+        <v>2618.0000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -2057,12 +2064,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -2070,12 +2077,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/LR3/table_1_34.xlsx
+++ b/LR3/table_1_34.xlsx
@@ -27,27 +27,12 @@
     <t>Площадь, кв.м.</t>
   </si>
   <si>
-    <t>Тариф</t>
-  </si>
-  <si>
-    <t>Сумма</t>
-  </si>
-  <si>
     <t>Срок оплаты</t>
   </si>
   <si>
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Просрочка</t>
-  </si>
-  <si>
-    <t>Штраф</t>
-  </si>
-  <si>
-    <t>Итого</t>
-  </si>
-  <si>
     <t>Ершов</t>
   </si>
   <si>
@@ -147,15 +132,6 @@
     <t>Куропаткин 1</t>
   </si>
   <si>
-    <t>Куропаткин 2</t>
-  </si>
-  <si>
-    <t>Куропаткин 3</t>
-  </si>
-  <si>
-    <t>Пени за 1 День</t>
-  </si>
-  <si>
     <t xml:space="preserve">Афанасьев </t>
   </si>
   <si>
@@ -169,6 +145,30 @@
   </si>
   <si>
     <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Мохаммед</t>
+  </si>
+  <si>
+    <t>Банницын</t>
+  </si>
+  <si>
+    <t>Тариф, руб./кв.м.</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
+  </si>
+  <si>
+    <t>Просрочка, дней</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
   </si>
 </sst>
 </file>
@@ -216,15 +216,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -528,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -537,12 +535,15 @@
     <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="1"/>
+    <col min="4" max="4" width="21.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="18" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -551,94 +552,94 @@
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
+      <c r="H2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>34*1.1</f>
+        <f>$A$1*1.1</f>
         <v>37.400000000000006</v>
       </c>
       <c r="E3" s="1">
-        <f>D3*C3</f>
+        <f>C3*D3</f>
         <v>2618.0000000000005</v>
       </c>
-      <c r="F3" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="F3" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="4">
         <v>44805</v>
       </c>
       <c r="H3" s="1">
@@ -661,23 +662,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1">
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D38" si="0">34*1.1</f>
+        <f t="shared" ref="D4:D38" si="0">$A$1*1.1</f>
         <v>37.400000000000006</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="1">D4*C4</f>
+        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
         <v>2599.3000000000002</v>
       </c>
-      <c r="F4" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="F4" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G4" s="4">
         <v>44806</v>
       </c>
       <c r="H4" s="1">
@@ -700,7 +701,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1">
         <v>69</v>
@@ -713,10 +714,10 @@
         <f t="shared" si="1"/>
         <v>2580.6000000000004</v>
       </c>
-      <c r="F5" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="F5" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G5" s="4">
         <v>44807</v>
       </c>
       <c r="H5" s="1">
@@ -739,7 +740,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1">
         <v>68.5</v>
@@ -752,10 +753,10 @@
         <f t="shared" si="1"/>
         <v>2561.9000000000005</v>
       </c>
-      <c r="F6" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="F6" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G6" s="4">
         <v>44808</v>
       </c>
       <c r="H6" s="1">
@@ -778,7 +779,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1">
         <v>68</v>
@@ -791,10 +792,10 @@
         <f t="shared" si="1"/>
         <v>2543.2000000000003</v>
       </c>
-      <c r="F7" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="F7" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G7" s="4">
         <v>44809</v>
       </c>
       <c r="H7" s="1">
@@ -817,7 +818,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1">
         <v>67.5</v>
@@ -830,10 +831,10 @@
         <f t="shared" si="1"/>
         <v>2524.5000000000005</v>
       </c>
-      <c r="F8" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="F8" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G8" s="4">
         <v>44810</v>
       </c>
       <c r="H8" s="1">
@@ -856,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1">
         <v>67</v>
@@ -869,10 +870,10 @@
         <f t="shared" si="1"/>
         <v>2505.8000000000002</v>
       </c>
-      <c r="F9" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="F9" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G9" s="4">
         <v>44811</v>
       </c>
       <c r="H9" s="1">
@@ -895,7 +896,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1">
         <v>66.5</v>
@@ -908,10 +909,10 @@
         <f t="shared" si="1"/>
         <v>2487.1000000000004</v>
       </c>
-      <c r="F10" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="F10" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G10" s="4">
         <v>44812</v>
       </c>
       <c r="H10" s="1">
@@ -934,7 +935,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1">
         <v>66</v>
@@ -947,10 +948,10 @@
         <f t="shared" si="1"/>
         <v>2468.4000000000005</v>
       </c>
-      <c r="F11" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="F11" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G11" s="4">
         <v>44813</v>
       </c>
       <c r="H11" s="1">
@@ -973,7 +974,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1">
         <v>65.5</v>
@@ -986,10 +987,10 @@
         <f t="shared" si="1"/>
         <v>2449.7000000000003</v>
       </c>
-      <c r="F12" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="F12" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G12" s="4">
         <v>44814</v>
       </c>
       <c r="H12" s="1">
@@ -1012,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1">
         <v>65</v>
@@ -1025,10 +1026,10 @@
         <f t="shared" si="1"/>
         <v>2431.0000000000005</v>
       </c>
-      <c r="F13" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="F13" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G13" s="4">
         <v>44815</v>
       </c>
       <c r="H13" s="1">
@@ -1051,7 +1052,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1">
         <v>64.5</v>
@@ -1064,10 +1065,10 @@
         <f t="shared" si="1"/>
         <v>2412.3000000000002</v>
       </c>
-      <c r="F14" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="F14" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G14" s="4">
         <v>44816</v>
       </c>
       <c r="H14" s="1">
@@ -1090,7 +1091,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1">
         <v>64</v>
@@ -1103,10 +1104,10 @@
         <f t="shared" si="1"/>
         <v>2393.6000000000004</v>
       </c>
-      <c r="F15" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="F15" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G15" s="4">
         <v>44817</v>
       </c>
       <c r="H15" s="1">
@@ -1129,7 +1130,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1">
         <v>63.5</v>
@@ -1142,10 +1143,10 @@
         <f t="shared" si="1"/>
         <v>2374.9000000000005</v>
       </c>
-      <c r="F16" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="F16" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G16" s="4">
         <v>44818</v>
       </c>
       <c r="H16" s="1">
@@ -1168,7 +1169,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1">
         <v>63</v>
@@ -1181,10 +1182,10 @@
         <f t="shared" si="1"/>
         <v>2356.2000000000003</v>
       </c>
-      <c r="F17" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="F17" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G17" s="4">
         <v>44819</v>
       </c>
       <c r="H17" s="1">
@@ -1207,7 +1208,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1">
         <v>62.5</v>
@@ -1220,10 +1221,10 @@
         <f t="shared" si="1"/>
         <v>2337.5000000000005</v>
       </c>
-      <c r="F18" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="F18" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G18" s="4">
         <v>44820</v>
       </c>
       <c r="H18" s="1">
@@ -1246,7 +1247,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1">
         <v>62</v>
@@ -1259,10 +1260,10 @@
         <f t="shared" si="1"/>
         <v>2318.8000000000002</v>
       </c>
-      <c r="F19" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="F19" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G19" s="4">
         <v>44821</v>
       </c>
       <c r="H19" s="1">
@@ -1285,7 +1286,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1">
         <v>61.5</v>
@@ -1298,10 +1299,10 @@
         <f t="shared" si="1"/>
         <v>2300.1000000000004</v>
       </c>
-      <c r="F20" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="F20" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G20" s="4">
         <v>44822</v>
       </c>
       <c r="H20" s="1">
@@ -1324,7 +1325,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1">
         <v>61</v>
@@ -1337,10 +1338,10 @@
         <f t="shared" si="1"/>
         <v>2281.4000000000005</v>
       </c>
-      <c r="F21" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="F21" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G21" s="4">
         <v>44823</v>
       </c>
       <c r="H21" s="1">
@@ -1363,7 +1364,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C22" s="1">
         <v>60.5</v>
@@ -1376,10 +1377,10 @@
         <f t="shared" si="1"/>
         <v>2262.7000000000003</v>
       </c>
-      <c r="F22" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="F22" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G22" s="4">
         <v>44824</v>
       </c>
       <c r="H22" s="1">
@@ -1402,7 +1403,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1">
         <v>60</v>
@@ -1415,10 +1416,10 @@
         <f t="shared" si="1"/>
         <v>2244.0000000000005</v>
       </c>
-      <c r="F23" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G23" s="5">
+      <c r="F23" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G23" s="4">
         <v>44825</v>
       </c>
       <c r="H23" s="1">
@@ -1441,7 +1442,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C24" s="1">
         <v>59.5</v>
@@ -1454,10 +1455,10 @@
         <f t="shared" si="1"/>
         <v>2225.3000000000002</v>
       </c>
-      <c r="F24" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G24" s="5">
+      <c r="F24" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G24" s="4">
         <v>44826</v>
       </c>
       <c r="H24" s="1">
@@ -1480,7 +1481,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C25" s="1">
         <v>59</v>
@@ -1493,10 +1494,10 @@
         <f t="shared" si="1"/>
         <v>2206.6000000000004</v>
       </c>
-      <c r="F25" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G25" s="5">
+      <c r="F25" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G25" s="4">
         <v>44827</v>
       </c>
       <c r="H25" s="1">
@@ -1519,7 +1520,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C26" s="1">
         <v>58.5</v>
@@ -1532,10 +1533,10 @@
         <f t="shared" si="1"/>
         <v>2187.9000000000005</v>
       </c>
-      <c r="F26" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G26" s="5">
+      <c r="F26" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G26" s="4">
         <v>44828</v>
       </c>
       <c r="H26" s="1">
@@ -1558,7 +1559,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C27" s="1">
         <v>58</v>
@@ -1571,10 +1572,10 @@
         <f t="shared" si="1"/>
         <v>2169.2000000000003</v>
       </c>
-      <c r="F27" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G27" s="5">
+      <c r="F27" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G27" s="4">
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1597,7 +1598,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C28" s="1">
         <v>57.5</v>
@@ -1610,10 +1611,10 @@
         <f t="shared" si="1"/>
         <v>2150.5000000000005</v>
       </c>
-      <c r="F28" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G28" s="5">
+      <c r="F28" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G28" s="4">
         <v>44830</v>
       </c>
       <c r="H28" s="1">
@@ -1636,7 +1637,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C29" s="1">
         <v>57</v>
@@ -1649,10 +1650,10 @@
         <f t="shared" si="1"/>
         <v>2131.8000000000002</v>
       </c>
-      <c r="F29" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G29" s="5">
+      <c r="F29" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G29" s="4">
         <v>44831</v>
       </c>
       <c r="H29" s="1">
@@ -1675,7 +1676,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C30" s="1">
         <v>56.5</v>
@@ -1688,10 +1689,10 @@
         <f t="shared" si="1"/>
         <v>2113.1000000000004</v>
       </c>
-      <c r="F30" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G30" s="5">
+      <c r="F30" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G30" s="4">
         <v>44832</v>
       </c>
       <c r="H30" s="1">
@@ -1714,7 +1715,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C31" s="1">
         <v>56</v>
@@ -1727,10 +1728,10 @@
         <f t="shared" si="1"/>
         <v>2094.4000000000005</v>
       </c>
-      <c r="F31" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G31" s="5">
+      <c r="F31" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G31" s="4">
         <v>44833</v>
       </c>
       <c r="H31" s="1">
@@ -1753,7 +1754,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C32" s="1">
         <v>55.5</v>
@@ -1766,10 +1767,10 @@
         <f t="shared" si="1"/>
         <v>2075.7000000000003</v>
       </c>
-      <c r="F32" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G32" s="5">
+      <c r="F32" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G32" s="4">
         <v>44834</v>
       </c>
       <c r="H32" s="1">
@@ -1792,7 +1793,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C33" s="1">
         <v>55</v>
@@ -1805,10 +1806,10 @@
         <f t="shared" si="1"/>
         <v>2057.0000000000005</v>
       </c>
-      <c r="F33" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G33" s="5">
+      <c r="F33" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G33" s="4">
         <v>44835</v>
       </c>
       <c r="H33" s="1">
@@ -1831,7 +1832,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C34" s="1">
         <v>54.5</v>
@@ -1844,10 +1845,10 @@
         <f t="shared" si="1"/>
         <v>2038.3000000000004</v>
       </c>
-      <c r="F34" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G34" s="5">
+      <c r="F34" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G34" s="4">
         <v>44836</v>
       </c>
       <c r="H34" s="1">
@@ -1870,23 +1871,23 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C35" s="1">
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" ref="D35:D37" si="4">34*1.1/2</f>
+        <f t="shared" ref="D35:D37" si="4">$A$1*1.1/2</f>
         <v>18.700000000000003</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="1"/>
         <v>1009.8000000000002</v>
       </c>
-      <c r="F35" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G35" s="5">
+      <c r="F35" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G35" s="4">
         <v>44837</v>
       </c>
       <c r="H35" s="1">
@@ -1909,7 +1910,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C36" s="1">
         <v>53.5</v>
@@ -1922,10 +1923,10 @@
         <f t="shared" si="1"/>
         <v>1000.4500000000002</v>
       </c>
-      <c r="F36" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G36" s="5">
+      <c r="F36" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G36" s="4">
         <v>44838</v>
       </c>
       <c r="H36" s="1">
@@ -1948,7 +1949,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C37" s="1">
         <v>53</v>
@@ -1961,10 +1962,10 @@
         <f t="shared" si="1"/>
         <v>991.10000000000014</v>
       </c>
-      <c r="F37" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G37" s="5">
+      <c r="F37" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G37" s="4">
         <v>44839</v>
       </c>
       <c r="H37" s="1">
@@ -1987,23 +1988,23 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C38" s="1">
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f>34*1.1/2</f>
+        <f>$A$1*1.1/2</f>
         <v>18.700000000000003</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="1"/>
         <v>981.75000000000011</v>
       </c>
-      <c r="F38" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G38" s="5">
+      <c r="F38" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G38" s="4">
         <v>44840</v>
       </c>
       <c r="H38" s="1">
@@ -2023,25 +2024,25 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C40" s="1">
-        <f>SUM(K3:K38)</f>
-        <v>82263.900000000009</v>
+        <f>FLOOR(SUM(K3:K38),1)</f>
+        <v>82263</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C41" s="1">
-        <f>SUM(C3:C38)/36</f>
+        <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2050,7 +2051,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_34.xlsx
+++ b/LR3/table_1_34.xlsx
@@ -212,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -222,7 +222,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -526,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -570,7 +569,7 @@
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -629,7 +628,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>$A$1*1.1</f>
+        <f>A1*1.1</f>
         <v>37.400000000000006</v>
       </c>
       <c r="E3" s="1">
@@ -659,6 +658,7 @@
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -668,11 +668,11 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D38" si="0">$A$1*1.1</f>
+        <f>D3</f>
         <v>37.400000000000006</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>2599.3000000000002</v>
       </c>
       <c r="F4" s="4">
@@ -685,19 +685,21 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
+        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
+        <f t="shared" ref="J4:J38" si="1">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="2">E4+J4</f>
         <v>2599.3000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
+        <f t="shared" ref="A5:A38" si="3">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -707,11 +709,11 @@
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D38" si="4">D4</f>
         <v>37.400000000000006</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2580.6000000000004</v>
       </c>
       <c r="F5" s="4">
@@ -724,19 +726,21 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
+        <f t="shared" ref="I5:I38" si="5">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2580.6000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -746,11 +750,11 @@
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2561.9000000000005</v>
       </c>
       <c r="F6" s="4">
@@ -763,19 +767,21 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2561.9000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -785,11 +791,11 @@
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2543.2000000000003</v>
       </c>
       <c r="F7" s="4">
@@ -802,19 +808,21 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2543.2000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -824,11 +832,11 @@
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2524.5000000000005</v>
       </c>
       <c r="F8" s="4">
@@ -841,19 +849,21 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2524.5000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -863,11 +873,11 @@
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2505.8000000000002</v>
       </c>
       <c r="F9" s="4">
@@ -880,19 +890,21 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2505.8000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -902,11 +914,11 @@
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2487.1000000000004</v>
       </c>
       <c r="F10" s="4">
@@ -919,19 +931,21 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2487.1000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -941,11 +955,11 @@
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2468.4000000000005</v>
       </c>
       <c r="F11" s="4">
@@ -958,19 +972,21 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2468.4000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -980,11 +996,11 @@
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2449.7000000000003</v>
       </c>
       <c r="F12" s="4">
@@ -997,19 +1013,21 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2459.7000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1019,11 +1037,11 @@
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2431.0000000000005</v>
       </c>
       <c r="F13" s="4">
@@ -1036,19 +1054,21 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2451.0000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1058,11 +1078,11 @@
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2412.3000000000002</v>
       </c>
       <c r="F14" s="4">
@@ -1075,19 +1095,21 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2442.3000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1097,11 +1119,11 @@
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2393.6000000000004</v>
       </c>
       <c r="F15" s="4">
@@ -1114,19 +1136,21 @@
         <v>4</v>
       </c>
       <c r="I15" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2433.6000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1136,11 +1160,11 @@
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2374.9000000000005</v>
       </c>
       <c r="F16" s="4">
@@ -1153,19 +1177,21 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2424.9000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1175,11 +1201,11 @@
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2356.2000000000003</v>
       </c>
       <c r="F17" s="4">
@@ -1192,19 +1218,21 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2416.2000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1214,11 +1242,11 @@
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2337.5000000000005</v>
       </c>
       <c r="F18" s="4">
@@ -1231,19 +1259,21 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2407.5000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1253,11 +1283,11 @@
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2318.8000000000002</v>
       </c>
       <c r="F19" s="4">
@@ -1270,19 +1300,21 @@
         <v>8</v>
       </c>
       <c r="I19" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2398.8000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1292,11 +1324,11 @@
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2300.1000000000004</v>
       </c>
       <c r="F20" s="4">
@@ -1309,19 +1341,21 @@
         <v>9</v>
       </c>
       <c r="I20" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2390.1000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1331,11 +1365,11 @@
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2281.4000000000005</v>
       </c>
       <c r="F21" s="4">
@@ -1348,19 +1382,21 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2381.4000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1370,11 +1406,11 @@
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2262.7000000000003</v>
       </c>
       <c r="F22" s="4">
@@ -1387,19 +1423,21 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2372.7000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1409,11 +1447,11 @@
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2244.0000000000005</v>
       </c>
       <c r="F23" s="4">
@@ -1426,19 +1464,21 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2364.0000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1448,11 +1488,11 @@
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2225.3000000000002</v>
       </c>
       <c r="F24" s="4">
@@ -1465,19 +1505,21 @@
         <v>13</v>
       </c>
       <c r="I24" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2355.3000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1487,11 +1529,11 @@
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2206.6000000000004</v>
       </c>
       <c r="F25" s="4">
@@ -1504,19 +1546,21 @@
         <v>14</v>
       </c>
       <c r="I25" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2346.6000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1526,11 +1570,11 @@
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2187.9000000000005</v>
       </c>
       <c r="F26" s="4">
@@ -1543,19 +1587,21 @@
         <v>15</v>
       </c>
       <c r="I26" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2337.9000000000005</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1565,11 +1611,11 @@
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2169.2000000000003</v>
       </c>
       <c r="F27" s="4">
@@ -1582,19 +1628,21 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2329.2000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1604,11 +1652,11 @@
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2150.5000000000005</v>
       </c>
       <c r="F28" s="4">
@@ -1621,19 +1669,21 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2320.5000000000005</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1643,11 +1693,11 @@
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2131.8000000000002</v>
       </c>
       <c r="F29" s="4">
@@ -1660,19 +1710,21 @@
         <v>18</v>
       </c>
       <c r="I29" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2311.8000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1682,11 +1734,11 @@
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2113.1000000000004</v>
       </c>
       <c r="F30" s="4">
@@ -1699,19 +1751,21 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2303.1000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1721,11 +1775,11 @@
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2094.4000000000005</v>
       </c>
       <c r="F31" s="4">
@@ -1738,19 +1792,21 @@
         <v>20</v>
       </c>
       <c r="I31" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2294.4000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1760,11 +1816,11 @@
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2075.7000000000003</v>
       </c>
       <c r="F32" s="4">
@@ -1777,19 +1833,21 @@
         <v>21</v>
       </c>
       <c r="I32" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2285.7000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1799,11 +1857,11 @@
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2057.0000000000005</v>
       </c>
       <c r="F33" s="4">
@@ -1816,19 +1874,21 @@
         <v>22</v>
       </c>
       <c r="I33" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2277.0000000000005</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1838,11 +1898,11 @@
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2038.3000000000004</v>
       </c>
       <c r="F34" s="4">
@@ -1855,19 +1915,21 @@
         <v>23</v>
       </c>
       <c r="I34" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2268.3000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1877,11 +1939,11 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" ref="D35:D37" si="4">$A$1*1.1/2</f>
+        <f>D3/2</f>
         <v>18.700000000000003</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1009.8000000000002</v>
       </c>
       <c r="F35" s="4">
@@ -1894,19 +1956,21 @@
         <v>24</v>
       </c>
       <c r="I35" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1249.8000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1920,7 +1984,7 @@
         <v>18.700000000000003</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1000.4500000000002</v>
       </c>
       <c r="F36" s="4">
@@ -1933,19 +1997,21 @@
         <v>25</v>
       </c>
       <c r="I36" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1250.4500000000003</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1959,7 +2025,7 @@
         <v>18.700000000000003</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>991.10000000000014</v>
       </c>
       <c r="F37" s="4">
@@ -1972,19 +2038,21 @@
         <v>26</v>
       </c>
       <c r="I37" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1251.1000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1994,11 +2062,11 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f>$A$1*1.1/2</f>
+        <f t="shared" si="4"/>
         <v>18.700000000000003</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>981.75000000000011</v>
       </c>
       <c r="F38" s="4">
@@ -2011,14 +2079,15 @@
         <v>27</v>
       </c>
       <c r="I38" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1251.75</v>
       </c>
     </row>

--- a/LR3/table_1_34.xlsx
+++ b/LR3/table_1_34.xlsx
@@ -526,7 +526,7 @@
   <dimension ref="A1:AQ43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -642,6 +642,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -665,6 +666,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="1">
+        <f>C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
@@ -676,12 +678,15 @@
         <v>2599.3000000000002</v>
       </c>
       <c r="F4" s="4">
+        <f>F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="4">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="1">
+        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -689,27 +694,28 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="1">H4*I4</f>
+        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="2">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>2599.3000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A38" si="3">A4+1</f>
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="1">
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D38" si="4">D4</f>
+        <f t="shared" ref="D5:D34" si="6">D4</f>
         <v>37.400000000000006</v>
       </c>
       <c r="E5" s="1">
@@ -717,40 +723,44 @@
         <v>2580.6000000000004</v>
       </c>
       <c r="F5" s="4">
+        <f t="shared" ref="F5:F38" si="7">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="4">
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I38" si="5">I4</f>
+        <f t="shared" ref="I5:I38" si="9">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2580.6000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="1">
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E6" s="1">
@@ -758,40 +768,44 @@
         <v>2561.9000000000005</v>
       </c>
       <c r="F6" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G6" s="4">
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2561.9000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="1">
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E7" s="1">
@@ -799,40 +813,44 @@
         <v>2543.2000000000003</v>
       </c>
       <c r="F7" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G7" s="4">
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2543.2000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="1">
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E8" s="1">
@@ -840,40 +858,44 @@
         <v>2524.5000000000005</v>
       </c>
       <c r="F8" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G8" s="4">
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2524.5000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="1">
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E9" s="1">
@@ -881,40 +903,44 @@
         <v>2505.8000000000002</v>
       </c>
       <c r="F9" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G9" s="4">
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2505.8000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="1">
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E10" s="1">
@@ -922,40 +948,44 @@
         <v>2487.1000000000004</v>
       </c>
       <c r="F10" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G10" s="4">
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2487.1000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="1">
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E11" s="1">
@@ -963,40 +993,44 @@
         <v>2468.4000000000005</v>
       </c>
       <c r="F11" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G11" s="4">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2468.4000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="1">
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E12" s="1">
@@ -1004,40 +1038,44 @@
         <v>2449.7000000000003</v>
       </c>
       <c r="F12" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G12" s="4">
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2459.7000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="1">
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E13" s="1">
@@ -1045,40 +1083,44 @@
         <v>2431.0000000000005</v>
       </c>
       <c r="F13" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G13" s="4">
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2451.0000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="1">
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E14" s="1">
@@ -1086,40 +1128,44 @@
         <v>2412.3000000000002</v>
       </c>
       <c r="F14" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G14" s="4">
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2442.3000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="1">
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E15" s="1">
@@ -1127,40 +1173,44 @@
         <v>2393.6000000000004</v>
       </c>
       <c r="F15" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G15" s="4">
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2433.6000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="1">
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E16" s="1">
@@ -1168,40 +1218,44 @@
         <v>2374.9000000000005</v>
       </c>
       <c r="F16" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G16" s="4">
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2424.9000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="1">
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E17" s="1">
@@ -1209,40 +1263,44 @@
         <v>2356.2000000000003</v>
       </c>
       <c r="F17" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G17" s="4">
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2416.2000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="1">
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E18" s="1">
@@ -1250,40 +1308,44 @@
         <v>2337.5000000000005</v>
       </c>
       <c r="F18" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G18" s="4">
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2407.5000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="1">
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E19" s="1">
@@ -1291,40 +1353,44 @@
         <v>2318.8000000000002</v>
       </c>
       <c r="F19" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G19" s="4">
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2398.8000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="1">
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E20" s="1">
@@ -1332,40 +1398,44 @@
         <v>2300.1000000000004</v>
       </c>
       <c r="F20" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G20" s="4">
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2390.1000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="1">
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E21" s="1">
@@ -1373,40 +1443,44 @@
         <v>2281.4000000000005</v>
       </c>
       <c r="F21" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G21" s="4">
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2381.4000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="1">
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E22" s="1">
@@ -1414,40 +1488,44 @@
         <v>2262.7000000000003</v>
       </c>
       <c r="F22" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G22" s="4">
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2372.7000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="1">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E23" s="1">
@@ -1455,40 +1533,44 @@
         <v>2244.0000000000005</v>
       </c>
       <c r="F23" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G23" s="4">
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2364.0000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="1">
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E24" s="1">
@@ -1496,40 +1578,44 @@
         <v>2225.3000000000002</v>
       </c>
       <c r="F24" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G24" s="4">
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2355.3000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="1">
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E25" s="1">
@@ -1537,40 +1623,44 @@
         <v>2206.6000000000004</v>
       </c>
       <c r="F25" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G25" s="4">
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2346.6000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="1">
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E26" s="1">
@@ -1578,40 +1668,44 @@
         <v>2187.9000000000005</v>
       </c>
       <c r="F26" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G26" s="4">
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2337.9000000000005</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="1">
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E27" s="1">
@@ -1619,40 +1713,44 @@
         <v>2169.2000000000003</v>
       </c>
       <c r="F27" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G27" s="4">
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2329.2000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="1">
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E28" s="1">
@@ -1660,40 +1758,44 @@
         <v>2150.5000000000005</v>
       </c>
       <c r="F28" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G28" s="4">
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2320.5000000000005</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="1">
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E29" s="1">
@@ -1701,40 +1803,44 @@
         <v>2131.8000000000002</v>
       </c>
       <c r="F29" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G29" s="4">
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2311.8000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="1">
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E30" s="1">
@@ -1742,40 +1848,44 @@
         <v>2113.1000000000004</v>
       </c>
       <c r="F30" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G30" s="4">
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2303.1000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="1">
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E31" s="1">
@@ -1783,40 +1893,44 @@
         <v>2094.4000000000005</v>
       </c>
       <c r="F31" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G31" s="4">
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2294.4000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="1">
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E32" s="1">
@@ -1824,40 +1938,44 @@
         <v>2075.7000000000003</v>
       </c>
       <c r="F32" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G32" s="4">
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2285.7000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="1">
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E33" s="1">
@@ -1865,40 +1983,44 @@
         <v>2057.0000000000005</v>
       </c>
       <c r="F33" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G33" s="4">
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2277.0000000000005</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C34" s="1">
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37.400000000000006</v>
       </c>
       <c r="E34" s="1">
@@ -1906,36 +2028,40 @@
         <v>2038.3000000000004</v>
       </c>
       <c r="F34" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G34" s="4">
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2268.3000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="1">
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
@@ -1947,40 +2073,44 @@
         <v>1009.8000000000002</v>
       </c>
       <c r="F35" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G35" s="4">
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1249.8000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C36" s="1">
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="4"/>
+        <f>D3/2</f>
         <v>18.700000000000003</v>
       </c>
       <c r="E36" s="1">
@@ -1988,40 +2118,44 @@
         <v>1000.4500000000002</v>
       </c>
       <c r="F36" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G36" s="4">
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1250.4500000000003</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C37" s="1">
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="4"/>
+        <f>D3/2</f>
         <v>18.700000000000003</v>
       </c>
       <c r="E37" s="1">
@@ -2029,40 +2163,44 @@
         <v>991.10000000000014</v>
       </c>
       <c r="F37" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G37" s="4">
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1251.1000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="1">
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="4"/>
+        <f>D3/2</f>
         <v>18.700000000000003</v>
       </c>
       <c r="E38" s="1">
@@ -2070,24 +2208,27 @@
         <v>981.75000000000011</v>
       </c>
       <c r="F38" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G38" s="4">
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1251.75</v>
       </c>
     </row>
